--- a/Simper_OTU/stevia.post_treat_krusk_simper.xlsx
+++ b/Simper_OTU/stevia.post_treat_krusk_simper.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{00A46F6E-1E52-4401-89A0-39785E66F89E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA585B5D-2F64-4B87-8516-02B39ACD2997}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stevia.post_treat_krusk_simper" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="44">
   <si>
     <t>Comparison</t>
   </si>
@@ -157,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +488,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -641,10 +667,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,11 +1032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1698,7 @@
       <c r="D21">
         <v>3.5737568420889298E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1.14360218946846E-2</v>
       </c>
       <c r="F21" t="s">
@@ -1697,7 +1730,7 @@
       <c r="D22">
         <v>4.3608415052213004E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1.3290183634960101E-2</v>
       </c>
       <c r="F22" t="s">
@@ -1729,7 +1762,7 @@
       <c r="D23">
         <v>5.4105338560848596E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1.5739734854065102E-2</v>
       </c>
       <c r="F23" t="s">
@@ -1761,7 +1794,7 @@
       <c r="D24">
         <v>6.1810810729951201E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1.7199529942247299E-2</v>
       </c>
       <c r="F24" t="s">
@@ -1793,7 +1826,7 @@
       <c r="D25">
         <v>6.5600513004507302E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1.74934701345353E-2</v>
       </c>
       <c r="F25" t="s">
@@ -1825,7 +1858,7 @@
       <c r="D26">
         <v>7.05072911042272E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1.8049866522682201E-2</v>
       </c>
       <c r="F26" t="s">
@@ -1857,7 +1890,7 @@
       <c r="D27">
         <v>7.6857940552132499E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>1.8918877674371101E-2</v>
       </c>
       <c r="F27" t="s">
@@ -1889,7 +1922,7 @@
       <c r="D28">
         <v>1.8465780238722401E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>4.3770738343638302E-2</v>
       </c>
       <c r="F28" t="s">
@@ -1921,7 +1954,7 @@
       <c r="D29">
         <v>1.9383341326824201E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>4.4304780175598101E-2</v>
       </c>
       <c r="F29" t="s">
@@ -3098,4 +3131,955 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1898F-1A4C-4F90-B420-4BBFCF63F437}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="91.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5.7558785434502997E-2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.3112218211929401E-4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.21940685670442E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.15682534014694E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.104364381620143</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.0349769657808699E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.4966969809608001E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.35566271685926E-4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.6708805503538901E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.18113014923917E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7.5658367581826605E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.45131952540159E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0266360684467997E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.0977311354282995E-5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.4456969702629693E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.7301250920689999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.2586616847999003E-2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.3706140523298299E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8.1144190635125592E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.2721278125834803E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.0303370153375502E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.8478356629546701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.4805316655554001E-2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.46866729113481E-4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.1913971711528799E-3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.9653470082137703E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.0801681985948401E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8.2362464717860295E-2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.5737568420889298E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.14360218946846E-2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.8969125861471401E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.8185129323184998E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.13291132548534301</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.8061366008365796E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.7085638897237998E-2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.1810810729951201E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.7199529942247299E-2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7.9151089864262503E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.9428936240383999E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.0200095552167899E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.23585639435065E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.3909666369990999E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.05072911042272E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.8049866522682201E-2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.3837010994044098E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.9212544957777002E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.7665559522692306E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.6743591259859999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9.5696176194426399E-2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.8940954875338001E-4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.8969125861471401E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5.8185129323184998E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.15332185989663799</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.111776717751684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.5784619149022999E-2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.3706140523298299E-4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8.1144190635125592E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.2721278125834803E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6.47654237563801E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>3.1369420650115602E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.4967718006232001E-2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.5140369380320305E-4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.7146028002619201E-3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.9653470082137703E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5.0801681985948401E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5.8112505811250599E-5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.7433751743375201E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3.9805391357367999E-2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.0798362378453301E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.60730128147341E-3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.6708805503538901E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3.18113014923917E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6.6422285036310397E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3.7559763637476602E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.0832646564888001E-2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.0008912225346299E-3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7.1142799023453602E-3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.3032612600022999E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.98083230325525E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.8051782189713198E-5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.7415534656914001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.7425168179759997E-2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.7471881993271999E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9.2536865661547608E-3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.21940685670442E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.15682534014694E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.100423193991833</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4.0870260745796E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.7679739690298997E-2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.5600513004507302E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.74934701345353E-2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7.9151089864262503E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5.9428936240383999E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6.2830123863181798E-3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>8.0234043720339293E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.4399691116227E-2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9.5488256257511201E-5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.1674185621301302E-3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>8.7062914046147299E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2.8027219940559199E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4.7213868576557003E-2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3.6622398281937698E-4</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2.1913971711528799E-3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.21940685670442E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.15682534014694E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>8.7808481282931602E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2.9561007088034899E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4.6258074942682997E-2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.7140910089413398E-4</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.1913971711528799E-3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3.6708805503538901E-3</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3.18113014923917E-3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>7.7684787244468201E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.9334441345233998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4.2849481288587003E-2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3.766463887919E-4</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.1913971711528799E-3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8">
+        <v>8.1144190635125592E-3</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5.2721278125834803E-3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7.6680712901025294E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>3.6788413092938198E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4.3335580337865998E-2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8.1677878399501603E-4</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3.7338458696915002E-3</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.8969125861471401E-3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5.8185129323184998E-3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>7.0368073664140399E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>6.8986188459091199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2.4732917182339002E-2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.3398722707605201E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5.3594890830421004E-3</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3.9653470082137703E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>5.0801681985948401E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1.30718963182978E-4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.42044498101584E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.0688947524286998E-2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.79979108505883E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6.7756840849273799E-3</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3.3032612600022999E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2.98083230325525E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4.8235023855542999E-2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4.3608415052213004E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.3290183634960101E-2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="8">
+        <v>7.9151089864262503E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5.9428936240383999E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3.8545545014287302E-3</v>
+      </c>
+      <c r="J24" s="8">
+        <v>6.3029746271439698E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.1214086455746999E-2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7.6857940552132499E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.8918877674371101E-2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3.3837010994044098E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1.9212544957777002E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6.2873231887820694E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2.75271798015095E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2.233496048203E-2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.9383341326824201E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.4304780175598101E-2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1.2543475894445299E-3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.38627989455012E-3</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3.65867366477724E-2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>6.4846974500695195E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>4.0497736547165E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>5.4105338560848596E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.5739734854065102E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>6.4456969702629693E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.7301250920689999E-2</v>
+      </c>
+      <c r="I30">
+        <v>3.1825777714928297E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.07269535915539E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>4.66670132924E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>1.8465780238722401E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.3770738343638302E-2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>6.9976420769236602E-3</v>
+      </c>
+      <c r="H31">
+        <v>1.3375342625253099E-2</v>
+      </c>
+      <c r="I31">
+        <v>4.1614690555852998E-2</v>
+      </c>
+      <c r="J31">
+        <v>3.5236241330494703E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>6.1893043657866E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>5.3200550513924998E-4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.7146028002619201E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>3.1825777714928297E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.07269535915539E-2</v>
+      </c>
+      <c r="I33">
+        <v>8.7062914046147299E-2</v>
+      </c>
+      <c r="J33">
+        <v>2.8027219940559199E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J27">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>